--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value928.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value928.xlsx
@@ -354,7 +354,7 @@
         <v>2.236214602532207</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.559538515183972</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value928.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value928.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.493543125998848</v>
+        <v>1.093260407447815</v>
       </c>
       <c r="B1">
-        <v>2.236214602532207</v>
+        <v>1.885980606079102</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.559538515183972</v>
+        <v>1.240871429443359</v>
       </c>
       <c r="E1">
-        <v>0.5253559194873134</v>
+        <v>1.167752027511597</v>
       </c>
     </row>
   </sheetData>
